--- a/BugTracker_v1.xlsx
+++ b/BugTracker_v1.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD236E3-AEB2-49ED-83D1-E6F1B3C16AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Defects" sheetId="1" r:id="rId3"/>
+    <sheet name="Defects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -776,26 +785,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -803,7 +821,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -819,73 +837,378 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.5"/>
-    <col customWidth="1" min="4" max="4" width="6.63"/>
-    <col customWidth="1" min="6" max="6" width="23.25"/>
-    <col customWidth="1" min="7" max="7" width="21.88"/>
-    <col customWidth="1" min="8" max="8" width="29.63"/>
-    <col customWidth="1" min="9" max="10" width="10.38"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="7" max="7" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,9 +1252,9 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -961,9 +1284,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -993,9 +1316,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1025,9 +1348,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -1057,9 +1380,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -1089,9 +1412,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -1121,9 +1444,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -1153,9 +1476,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -1185,9 +1508,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -1217,9 +1540,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -1249,9 +1572,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1281,9 +1604,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -1313,9 +1636,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
@@ -1345,9 +1668,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1377,9 +1700,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -1409,9 +1732,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -1441,9 +1764,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
@@ -1473,9 +1796,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
@@ -1505,9 +1828,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -1537,9 +1860,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -1569,9 +1892,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -1601,9 +1924,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>10</v>
@@ -1633,9 +1956,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>10</v>
@@ -1665,9 +1988,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
@@ -1697,9 +2020,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>10</v>
@@ -1729,9 +2052,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
@@ -1761,9 +2084,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -1793,9 +2116,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -1825,9 +2148,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
@@ -1857,9 +2180,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
@@ -1889,9 +2212,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>10</v>
@@ -1921,9 +2244,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
@@ -1953,9 +2276,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>10</v>
@@ -1985,9 +2308,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>10</v>
@@ -2017,9 +2340,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>10</v>
@@ -2049,9 +2372,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>10</v>
@@ -2081,9 +2404,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>10</v>
@@ -2113,9 +2436,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>10</v>
@@ -2145,9 +2468,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>10</v>
@@ -2177,9 +2500,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>10</v>
@@ -2209,9 +2532,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>10</v>
@@ -2241,9 +2564,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>10</v>
@@ -2273,9 +2596,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>10</v>
@@ -2305,9 +2628,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -2337,9 +2660,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>10</v>
@@ -2369,9 +2692,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>10</v>
@@ -2401,9 +2724,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>10</v>
@@ -2433,9 +2756,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>10</v>
@@ -2465,9 +2788,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>10</v>
@@ -2497,9 +2820,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>10</v>
@@ -2529,9 +2852,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>10</v>
@@ -2561,9 +2884,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>10</v>
@@ -2593,9 +2916,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>10</v>
@@ -2625,9 +2948,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>10</v>
@@ -2657,9 +2980,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>10</v>
@@ -2689,9 +3012,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>10</v>
@@ -2721,9 +3044,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>10</v>
@@ -2753,9 +3076,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>10</v>
@@ -2785,9 +3108,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>10</v>
@@ -2817,9 +3140,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>10</v>
@@ -2849,9 +3172,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>10</v>
@@ -2881,9 +3204,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>10</v>
@@ -2913,9 +3236,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>10</v>
@@ -2945,9 +3268,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>10</v>
@@ -2977,9 +3300,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>10</v>
@@ -3009,9 +3332,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>10</v>
@@ -3041,9 +3364,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>10</v>
@@ -3073,9 +3396,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>10</v>
@@ -3105,9 +3428,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>10</v>
@@ -3137,9 +3460,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>10</v>
@@ -3169,9 +3492,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>10</v>
@@ -3201,9 +3524,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>10</v>
@@ -3233,9 +3556,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>10</v>
@@ -3265,9 +3588,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>10</v>
@@ -3297,9 +3620,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>10</v>
@@ -3329,9 +3652,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>10</v>
@@ -3361,9 +3684,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>10</v>
@@ -3393,9 +3716,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>10</v>
@@ -3425,9 +3748,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>10</v>
@@ -3457,9 +3780,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>10</v>
@@ -3489,9 +3812,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>10</v>
@@ -3521,9 +3844,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>10</v>
@@ -3553,9 +3876,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>10</v>
@@ -3585,9 +3908,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>10</v>
@@ -3617,163 +3940,163 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
+    <row r="86" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>